--- a/Data/Survey_data.xlsx
+++ b/Data/Survey_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owner/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owner/MCB536/tfcb-homework01/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891248AD-5AE9-C845-A03B-EB8CC5CBC9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E365E8E8-8126-E144-94E7-8A333B41CA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="1400" windowWidth="25120" windowHeight="15580" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="19">
   <si>
     <t>NA</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -606,7 +609,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -650,7 +653,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -675,7 +678,7 @@
   <dimension ref="A1:AB61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
@@ -746,7 +749,9 @@
       <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
@@ -809,7 +814,9 @@
       <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
@@ -840,7 +847,9 @@
       <c r="E5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1454,8 +1463,12 @@
       <c r="D28" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="E28" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="G28" s="4" t="s">
         <v>17</v>
       </c>
@@ -1551,8 +1564,12 @@
       <c r="D32" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="E32" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="G32" s="4" t="s">
         <v>17</v>
       </c>
@@ -1597,7 +1614,9 @@
       <c r="D34" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="15"/>
+      <c r="E34" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="F34" s="15"/>
       <c r="G34" s="4" t="s">
         <v>17</v>
@@ -1721,7 +1740,9 @@
       <c r="E39" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F39" s="18"/>
+      <c r="F39" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="G39" s="4" t="s">
         <v>17</v>
       </c>
@@ -1738,9 +1759,15 @@
       <c r="C40" s="17">
         <v>42130</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="D40" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="G40" s="4" t="s">
         <v>17</v>
       </c>
